--- a/data/trans_dic/P16A09-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.0121163455544896</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.02979662414918615</v>
+        <v>0.02979662414918614</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02850704038522372</v>
@@ -697,7 +697,7 @@
         <v>0.009221231161507028</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.0187686467194084</v>
+        <v>0.01876864671940839</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0115494221034866</v>
+        <v>0.0119380043686404</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01202299716483359</v>
+        <v>0.0118169468264041</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001727760438372371</v>
+        <v>0.001734034546760596</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003017881315509945</v>
+        <v>0.003353742620332159</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01769734645546076</v>
+        <v>0.0182537927008774</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.003508810208898998</v>
+        <v>0.003503915318437565</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.003238160343187248</v>
+        <v>0.003146755837481432</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01856815418663847</v>
+        <v>0.01911781079158977</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01714207940502835</v>
+        <v>0.01813844463991214</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0114909857901153</v>
+        <v>0.01103615119378205</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.00367855726404642</v>
+        <v>0.003820856438660886</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01244083729985568</v>
+        <v>0.01237291533952095</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04263839473446826</v>
+        <v>0.04491666737089873</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04935836498993303</v>
+        <v>0.04903144045689214</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01967079349008421</v>
+        <v>0.01956266543092518</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01920586731055277</v>
+        <v>0.01979904721193924</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06375774657638573</v>
+        <v>0.06343215962767287</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03401817933789652</v>
+        <v>0.03526787700006042</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02850896284906633</v>
+        <v>0.02981767531673316</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04925584592603832</v>
+        <v>0.04628766803064033</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04274140122462447</v>
+        <v>0.04394916605424386</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03728680875167924</v>
+        <v>0.03537709163402383</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01868324453893233</v>
+        <v>0.01742062316680983</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02749436493712891</v>
+        <v>0.0273214354557704</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.00586359208463362</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.02557780313654299</v>
+        <v>0.025577803136543</v>
       </c>
     </row>
     <row r="8">
@@ -844,38 +844,38 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004699747792848701</v>
+        <v>0.003830408967365903</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007403312481543792</v>
+        <v>0.007379299671299827</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.005427153105441261</v>
+        <v>0.005192359057690142</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.008673778734417673</v>
+        <v>0.009316825227865925</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01198541847904539</v>
+        <v>0.01201293827037136</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.003132351572868008</v>
+        <v>0.00308907669101034</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02553142169020441</v>
+        <v>0.02692862633707339</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.008841844079465731</v>
+        <v>0.009207166172090317</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01231201585692244</v>
+        <v>0.01154118672471794</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.001533947632789905</v>
+        <v>0.00136163523356512</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01759947353664181</v>
+        <v>0.01781619856573416</v>
       </c>
     </row>
     <row r="9">
@@ -886,38 +886,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02506023993033511</v>
+        <v>0.02512805395924795</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03304398202573979</v>
+        <v>0.03306469306752086</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.02954131164999579</v>
+        <v>0.0269387308608479</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0469394966611247</v>
+        <v>0.04770459253560903</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04651194075411774</v>
+        <v>0.04674449931869083</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0299665309156486</v>
+        <v>0.02764278034397967</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05696381281679478</v>
+        <v>0.05757909134267759</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03025001970386133</v>
+        <v>0.03065150214542194</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03225726938376766</v>
+        <v>0.03380931234786737</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01551110080233013</v>
+        <v>0.01446525677431301</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03625908409375847</v>
+        <v>0.03712860251072873</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01661598466683511</v>
+        <v>0.01503127286679447</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01142319174812092</v>
+        <v>0.01158333183659837</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002219517610625127</v>
+        <v>0.002205622416177965</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01273710800072089</v>
+        <v>0.01243733011172411</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03582673901211004</v>
+        <v>0.03354300683298073</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01923940890218293</v>
+        <v>0.01984783380372916</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0125378333939997</v>
+        <v>0.01270374996696452</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05293466688434828</v>
+        <v>0.05297348570113047</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02458840568005469</v>
+        <v>0.02474889354551687</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0164767972086636</v>
+        <v>0.01680569636220643</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.007470044278478819</v>
+        <v>0.007098914257683474</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02663333669472221</v>
+        <v>0.02756865146242403</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04463650152932119</v>
+        <v>0.0434438916019415</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03941866054350732</v>
+        <v>0.04110930940611447</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02031643171435904</v>
+        <v>0.01961393407743191</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04088940821905553</v>
+        <v>0.03999856523736192</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1202214668846668</v>
+        <v>0.1237250487985764</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07346762955740369</v>
+        <v>0.07569692629436929</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08754424399769409</v>
+        <v>0.08934191538795956</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1414365239858739</v>
+        <v>0.1378276634083873</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05464930822816334</v>
+        <v>0.05395235748202696</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04163148379416348</v>
+        <v>0.04219876653922433</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03027836917786284</v>
+        <v>0.02867382769111173</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05619507395444624</v>
+        <v>0.05892593525232321</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.01842761622361604</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.03408467443209405</v>
+        <v>0.03408467443209404</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.04197698727002236</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03276353191683896</v>
+        <v>0.03356834624121875</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01590678604394734</v>
+        <v>0.01590995506653033</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01325213352777986</v>
+        <v>0.01351585242001263</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01829496391032236</v>
+        <v>0.01850177262120842</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02726636036424948</v>
+        <v>0.02680840220572117</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0193286537223296</v>
+        <v>0.01996753416885976</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01033665708226426</v>
+        <v>0.0106065931621833</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02466658384881663</v>
+        <v>0.0248885349723525</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03389309440879926</v>
+        <v>0.03423940778973508</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01907733569336043</v>
+        <v>0.01892796058699767</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01393771160384084</v>
+        <v>0.01437614098005911</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02397046941571084</v>
+        <v>0.02341644589533914</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05559831614639865</v>
+        <v>0.05590827890054698</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03435070759252875</v>
+        <v>0.03481041013721432</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03204103692606816</v>
+        <v>0.0300682698787773</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03574232824268544</v>
+        <v>0.03596658107951652</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05584853672801246</v>
+        <v>0.05574686327845576</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04349557871338553</v>
+        <v>0.04636097785504026</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02959052577723078</v>
+        <v>0.03069864551980854</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0439929340228253</v>
+        <v>0.04426041137336371</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05131176589199068</v>
+        <v>0.05172598808509827</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03470202304689517</v>
+        <v>0.03450714928272688</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02688467392455889</v>
+        <v>0.02682329234498792</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03667828856368188</v>
+        <v>0.035360235591258</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>0.04184085012865189</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.05153222951934304</v>
+        <v>0.05153222951934303</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01555338848492451</v>
+        <v>0.0156029018006466</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01239239260168987</v>
+        <v>0.01234319545749933</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01360843409588649</v>
+        <v>0.01295293339436632</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01353467416882945</v>
+        <v>0.01326977020879457</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03420980729024958</v>
+        <v>0.03480215402583939</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05273221871509442</v>
+        <v>0.05322369123048748</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04105713237367868</v>
+        <v>0.04211247135936044</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05935393056545507</v>
+        <v>0.05805573943101774</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03136763022113562</v>
+        <v>0.03079321877177715</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03859827911071552</v>
+        <v>0.03942275591281803</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03271149027366857</v>
+        <v>0.03165910311792928</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04283451916314088</v>
+        <v>0.04326235148691509</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05160765205051684</v>
+        <v>0.05082602995727279</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04001678972013791</v>
+        <v>0.03977969186587384</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03499212136931078</v>
+        <v>0.03570888080899179</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03663666571528128</v>
+        <v>0.0349858013020558</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07266249171969985</v>
+        <v>0.07303269874718905</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09010498341177113</v>
+        <v>0.08783733938272677</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07610236534460346</v>
+        <v>0.07995048813142791</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08608443118656182</v>
+        <v>0.08532016993724402</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05812229841631123</v>
+        <v>0.05675934142868451</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.06427262058824262</v>
+        <v>0.06370288128357064</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05398836867710241</v>
+        <v>0.05291053239264398</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06188753756552545</v>
+        <v>0.06133690801712328</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.0550782311849349</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.07499045776552959</v>
+        <v>0.07499045776552957</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.05440521977742817</v>
@@ -1373,7 +1373,7 @@
         <v>0.04352711129570727</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.05852177091263133</v>
+        <v>0.05852177091263132</v>
       </c>
     </row>
     <row r="20">
@@ -1390,28 +1390,28 @@
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.05346229585927825</v>
+        <v>0.05391034545131201</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07925218678292642</v>
+        <v>0.07966891651821688</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04105959789482243</v>
+        <v>0.04339915428722262</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06179585806143652</v>
+        <v>0.06191772781587367</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04383546713477025</v>
+        <v>0.0436022573091295</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.06470116488596066</v>
+        <v>0.06406004525334645</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.03240226242093539</v>
+        <v>0.03324831246371934</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.04774238963371021</v>
+        <v>0.04812712342909996</v>
       </c>
     </row>
     <row r="21">
@@ -1422,34 +1422,34 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01490499643558195</v>
+        <v>0.0137897778256771</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.08184103343438771</v>
+        <v>0.08197521404962987</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.117145309616244</v>
+        <v>0.1166029982475214</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.06993190214294218</v>
+        <v>0.072337803408469</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.09096884496402947</v>
+        <v>0.08966715408097498</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06682929769915452</v>
+        <v>0.06623183549597952</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.09579252444866311</v>
+        <v>0.09361012906002764</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.0557790763613991</v>
+        <v>0.05585212326924312</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.07129386610500255</v>
+        <v>0.07093324179790496</v>
       </c>
     </row>
     <row r="22">
@@ -1473,7 +1473,7 @@
         <v>0.01334877473399262</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.01854695674378199</v>
+        <v>0.01854695674378198</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.05077726668225903</v>
@@ -1485,7 +1485,7 @@
         <v>0.03750931336937555</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.05480897374534393</v>
+        <v>0.05480897374534392</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.0401402838549361</v>
@@ -1497,7 +1497,7 @@
         <v>0.02568379503450865</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.03716868645771842</v>
+        <v>0.03716868645771843</v>
       </c>
     </row>
     <row r="23">
@@ -1508,40 +1508,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02337184109502325</v>
+        <v>0.02405385132488341</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01609562944272797</v>
+        <v>0.01620343033713383</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.009791812678398622</v>
+        <v>0.009736366230800592</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01474045021087946</v>
+        <v>0.01447836724100344</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04357749348346126</v>
+        <v>0.04412181970049275</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05079427401827985</v>
+        <v>0.05061040950353844</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03118939962429681</v>
+        <v>0.03112786095256602</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04838994108050372</v>
+        <v>0.04908056617972114</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03508343165838052</v>
+        <v>0.03537647096862553</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.03558636033729533</v>
+        <v>0.03515063758553272</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02205921265388628</v>
+        <v>0.02185251771094691</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.03373066902269011</v>
+        <v>0.03361655790282325</v>
       </c>
     </row>
     <row r="24">
@@ -1552,40 +1552,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0352865975621546</v>
+        <v>0.0354501122521289</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02693674720393286</v>
+        <v>0.02633613457021131</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01736971506685314</v>
+        <v>0.0182997891764309</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02349296755730697</v>
+        <v>0.02340904089102059</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05829883529151107</v>
+        <v>0.05973265551358816</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06663134943677707</v>
+        <v>0.0667154479171677</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04465226161878812</v>
+        <v>0.04454633318931388</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06115718506371669</v>
+        <v>0.06179123156360535</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04507432990239361</v>
+        <v>0.04474490498878416</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.04533998962175086</v>
+        <v>0.04493517230602088</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02951806025244647</v>
+        <v>0.02962159564038925</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.04126692167704109</v>
+        <v>0.04114466432123443</v>
       </c>
     </row>
     <row r="25">
@@ -1858,40 +1858,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5472</v>
+        <v>5656</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5257</v>
+        <v>5166</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1662</v>
+        <v>1847</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5427</v>
+        <v>5598</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1124</v>
+        <v>1092</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9069</v>
+        <v>9337</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>13379</v>
+        <v>14156</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>8637</v>
+        <v>8295</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2855</v>
+        <v>2966</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>12926</v>
+        <v>12856</v>
       </c>
     </row>
     <row r="7">
@@ -1902,40 +1902,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20201</v>
+        <v>21280</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21580</v>
+        <v>21437</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8441</v>
+        <v>8394</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10575</v>
+        <v>10902</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19553</v>
+        <v>19453</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10697</v>
+        <v>11090</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9894</v>
+        <v>10348</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>24057</v>
+        <v>22607</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>33358</v>
+        <v>34300</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>28027</v>
+        <v>26592</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>14501</v>
+        <v>13521</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>28567</v>
+        <v>28388</v>
       </c>
     </row>
     <row r="8">
@@ -2038,38 +2038,38 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1724</v>
+        <v>1406</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3087</v>
+        <v>3077</v>
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>2622</v>
+        <v>2509</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3225</v>
+        <v>3465</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4019</v>
+        <v>4028</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1166</v>
+        <v>1150</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>10781</v>
+        <v>11371</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6532</v>
+        <v>6802</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>9263</v>
+        <v>8683</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1150</v>
+        <v>1021</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>15936</v>
+        <v>16132</v>
       </c>
     </row>
     <row r="11">
@@ -2080,38 +2080,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9195</v>
+        <v>9220</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13780</v>
+        <v>13789</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>14275</v>
+        <v>13017</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17455</v>
+        <v>17740</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>15596</v>
+        <v>15674</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>11156</v>
+        <v>10291</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>24054</v>
+        <v>24314</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>22349</v>
+        <v>22645</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>24268</v>
+        <v>25436</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>11626</v>
+        <v>10842</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>32832</v>
+        <v>33619</v>
       </c>
     </row>
     <row r="12">
@@ -2214,40 +2214,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9012</v>
+        <v>8153</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7155</v>
+        <v>7255</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6007</v>
+        <v>5866</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6011</v>
+        <v>5628</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4963</v>
+        <v>5120</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2083</v>
+        <v>2110</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9925</v>
+        <v>9932</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>17462</v>
+        <v>17576</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>14570</v>
+        <v>14861</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5140</v>
+        <v>4884</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>17554</v>
+        <v>18171</v>
       </c>
     </row>
     <row r="15">
@@ -2258,40 +2258,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24210</v>
+        <v>23563</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24689</v>
+        <v>25748</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10603</v>
+        <v>10237</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>19284</v>
+        <v>18864</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>20171</v>
+        <v>20759</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>18950</v>
+        <v>19525</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14543</v>
+        <v>14842</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>26519</v>
+        <v>25842</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>38810</v>
+        <v>38315</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>36814</v>
+        <v>37315</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>20833</v>
+        <v>19729</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>37039</v>
+        <v>38839</v>
       </c>
     </row>
     <row r="16">
@@ -2394,40 +2394,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>40572</v>
+        <v>41569</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>18409</v>
+        <v>18413</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>15235</v>
+        <v>15538</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>20692</v>
+        <v>20926</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>19476</v>
+        <v>19149</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>14818</v>
+        <v>15308</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8537</v>
+        <v>8760</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>21220</v>
+        <v>21411</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>66180</v>
+        <v>66857</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>36704</v>
+        <v>36417</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>27534</v>
+        <v>28400</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>47733</v>
+        <v>46630</v>
       </c>
     </row>
     <row r="19">
@@ -2438,40 +2438,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>68849</v>
+        <v>69233</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>39755</v>
+        <v>40287</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36836</v>
+        <v>34568</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>40426</v>
+        <v>40679</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>39892</v>
+        <v>39819</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>33346</v>
+        <v>35543</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>24438</v>
+        <v>25353</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>37846</v>
+        <v>38077</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>100192</v>
+        <v>101001</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>66766</v>
+        <v>66391</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>53111</v>
+        <v>52990</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>73038</v>
+        <v>70413</v>
       </c>
     </row>
     <row r="20">
@@ -2574,40 +2574,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5436</v>
+        <v>5454</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6328</v>
+        <v>6302</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8447</v>
+        <v>8040</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>7667</v>
+        <v>7517</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>19457</v>
+        <v>19794</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>39936</v>
+        <v>40308</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>30310</v>
+        <v>31089</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>49271</v>
+        <v>48194</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>28805</v>
+        <v>28277</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>48940</v>
+        <v>49985</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>44453</v>
+        <v>43023</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>59823</v>
+        <v>60421</v>
       </c>
     </row>
     <row r="23">
@@ -2618,40 +2618,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18039</v>
+        <v>17766</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>20432</v>
+        <v>20311</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>21720</v>
+        <v>22165</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>20754</v>
+        <v>19819</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>41327</v>
+        <v>41537</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>68239</v>
+        <v>66522</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>56182</v>
+        <v>59023</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>71461</v>
+        <v>70827</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>53373</v>
+        <v>52121</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>81493</v>
+        <v>80770</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>73367</v>
+        <v>71903</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>86433</v>
+        <v>85664</v>
       </c>
     </row>
     <row r="24">
@@ -2760,28 +2760,28 @@
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>66762</v>
+        <v>67321</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>87594</v>
+        <v>88055</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>44428</v>
+        <v>46959</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>52093</v>
+        <v>52196</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>67812</v>
+        <v>67451</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>88712</v>
+        <v>87833</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>44364</v>
+        <v>45523</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>51572</v>
+        <v>51988</v>
       </c>
     </row>
     <row r="27">
@@ -2792,34 +2792,34 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4445</v>
+        <v>4112</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>102200</v>
+        <v>102367</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>129476</v>
+        <v>128876</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>75668</v>
+        <v>78271</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>76686</v>
+        <v>75589</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>103382</v>
+        <v>102458</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>131341</v>
+        <v>128349</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>76371</v>
+        <v>76471</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>77013</v>
+        <v>76624</v>
       </c>
     </row>
     <row r="28">
@@ -2922,40 +2922,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>76407</v>
+        <v>78636</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>54956</v>
+        <v>55324</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>33152</v>
+        <v>32965</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>50710</v>
+        <v>49808</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>147210</v>
+        <v>149049</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>179657</v>
+        <v>179006</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>110148</v>
+        <v>109931</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>175732</v>
+        <v>178240</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>233210</v>
+        <v>235158</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>247370</v>
+        <v>244342</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>152591</v>
+        <v>151161</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>238535</v>
+        <v>237728</v>
       </c>
     </row>
     <row r="31">
@@ -2966,40 +2966,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>115358</v>
+        <v>115893</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>91971</v>
+        <v>89920</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>58809</v>
+        <v>61958</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>80820</v>
+        <v>80531</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>196941</v>
+        <v>201784</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>235672</v>
+        <v>235969</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>157694</v>
+        <v>157320</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>222097</v>
+        <v>224400</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>299622</v>
+        <v>297433</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>315170</v>
+        <v>312356</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>204186</v>
+        <v>204902</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>291830</v>
+        <v>290965</v>
       </c>
     </row>
     <row r="32">
